--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2022405.925652128</v>
+        <v>-2025083.811050988</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>144.4566243512595</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>212.5820731195838</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>211.723859926597</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.3144832165551</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>58.05221097272591</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>272.278325765838</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6.970745428234054</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>38.98491195020446</v>
+        <v>50.75395328186858</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>138.1665993380037</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>119.3517065765365</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>128.5863970643552</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>52.89297134046349</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>67.96386702300309</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>38.05096575280767</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892458</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>96.02642072444083</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>1.799772605716168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1850,13 +1850,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.32649042089646</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>30.85302310518039</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>26.70391688093253</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>34.21058558914839</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>144.9604756260739</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652652</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,10 +3086,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>265.9761533554615</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="C2" t="n">
-        <v>265.9761533554615</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="D2" t="n">
-        <v>265.9761533554615</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="E2" t="n">
-        <v>265.9761533554615</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2015.03199475811</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>1683.969107414539</v>
       </c>
       <c r="W2" t="n">
-        <v>1416.181083656475</v>
+        <v>1331.200452144425</v>
       </c>
       <c r="X2" t="n">
-        <v>1042.715325395395</v>
+        <v>957.7346938833455</v>
       </c>
       <c r="Y2" t="n">
-        <v>652.5759934195833</v>
+        <v>567.5953619075337</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4410,25 +4410,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1352.031492328576</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1739.316620925521</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.18296949591</v>
+        <v>1608.599654429051</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>1439.663471501144</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>1289.546832088809</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>1141.633738506415</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>1114.255484944676</v>
+        <v>2307.654840194269</v>
       </c>
       <c r="W4" t="n">
-        <v>824.8383149077151</v>
+        <v>2018.237670157308</v>
       </c>
       <c r="X4" t="n">
-        <v>596.8487640096978</v>
+        <v>1790.248119259291</v>
       </c>
       <c r="Y4" t="n">
-        <v>376.0561848661677</v>
+        <v>1790.248119259291</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1511.231752124757</v>
+        <v>784.9973385935637</v>
       </c>
       <c r="C5" t="n">
-        <v>1511.231752124757</v>
+        <v>784.9973385935637</v>
       </c>
       <c r="D5" t="n">
-        <v>1152.966053518007</v>
+        <v>784.9973385935637</v>
       </c>
       <c r="E5" t="n">
-        <v>1152.966053518007</v>
+        <v>784.9973385935637</v>
       </c>
       <c r="F5" t="n">
-        <v>741.9801487283992</v>
+        <v>374.0114338039561</v>
       </c>
       <c r="G5" t="n">
-        <v>326.275398452688</v>
+        <v>362.347087568649</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>58.28794356621933</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,7 +4592,7 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
         <v>2228.89447953245</v>
@@ -4604,13 +4604,13 @@
         <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>1897.831592188879</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X5" t="n">
-        <v>1897.831592188879</v>
+        <v>1171.597178657685</v>
       </c>
       <c r="Y5" t="n">
-        <v>1897.831592188879</v>
+        <v>1171.597178657685</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>777.6069060507741</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N6" t="n">
-        <v>1852.283970943244</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>809.3867773625709</v>
+        <v>376.3550174069661</v>
       </c>
       <c r="C7" t="n">
-        <v>809.3867773625709</v>
+        <v>376.3550174069661</v>
       </c>
       <c r="D7" t="n">
-        <v>659.2701379502352</v>
+        <v>376.3550174069661</v>
       </c>
       <c r="E7" t="n">
-        <v>511.357044367842</v>
+        <v>376.3550174069661</v>
       </c>
       <c r="F7" t="n">
-        <v>364.4670968699317</v>
+        <v>376.3550174069661</v>
       </c>
       <c r="G7" t="n">
-        <v>196.4806321782102</v>
+        <v>208.3685527152447</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234358</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>1439.817372234358</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W7" t="n">
-        <v>1439.817372234358</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="X7" t="n">
-        <v>1211.827821336341</v>
+        <v>597.1475965504962</v>
       </c>
       <c r="Y7" t="n">
-        <v>991.0352421928106</v>
+        <v>376.3550174069661</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1767.878520285689</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1398.916003345278</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1398.916003345278</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1013.127750747033</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>602.1418459574259</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>187.0693958024223</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4838,16 +4838,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605071</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.94140762926</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.8809675997582</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C10" t="n">
-        <v>532.8809675997582</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D10" t="n">
-        <v>532.8809675997582</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>384.967874017365</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
         <v>163.8377936138381</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1224.739181610489</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W10" t="n">
-        <v>935.322011573528</v>
+        <v>1356.361036635886</v>
       </c>
       <c r="X10" t="n">
-        <v>935.322011573528</v>
+        <v>1128.371485737869</v>
       </c>
       <c r="Y10" t="n">
-        <v>714.5294324299979</v>
+        <v>907.5789065943389</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.2946447138393</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>916.2946447138393</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>766.1780053015035</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>618.2649117191104</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>471.3749642212</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>304.1788649360799</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>162.467033778278</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854704</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648817</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138393</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138393</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2392.08784073087</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2209.233006385774</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1989.631541408715</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1700.556314752913</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1445.871826547026</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1156.454656510065</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>928.4651056120481</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y19" t="n">
-        <v>707.672526468518</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836013</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556945</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D22" t="n">
-        <v>415.5933575433587</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E22" t="n">
-        <v>267.6802639609656</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>120.7903164630552</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2345.361232772917</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2125.759767795858</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2598873597757</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.683526380545</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.608299724743</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.923811518856</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.506641481895</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.517090583878</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>184.7035232280583</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>184.7035232280583</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6455,46 +6455,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,16 +6534,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6555,13 +6555,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2532.719182723414</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384021</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,55 +6686,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
         <v>782.5512955656816</v>
@@ -6844,25 +6844,25 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,22 +6883,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7084,22 +7084,22 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,7 +7184,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,49 +7333,49 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,10 +7406,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,10 +7424,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565524</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683104</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,10 +7582,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7594,25 +7594,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384015</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311324</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7843,13 +7843,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8058,28 +8058,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>129.7511347056862</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>114.3555089013349</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,28 +8295,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>186.449012614385</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>15.64270034434958</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>238.2772173122211</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,19 +22553,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>81.9128507012275</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>194.2939726221277</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.51749696538224</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,19 +22711,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,10 +22759,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>13.30196929556244</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9753202488369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272926</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>71.22040037418701</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.04875628922523</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>194.8566322838568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.8202214113363</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>72.44497470121439</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-7.247535904753022e-13</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-7.247535904753022e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1339721.161033671</v>
+        <v>1339721.16103367</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1339721.16103367</v>
+        <v>1339721.161033671</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1339721.16103367</v>
+        <v>1339721.161033671</v>
       </c>
     </row>
     <row r="10">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64921.82232287327</v>
+        <v>64921.82232287329</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="E2" t="n">
         <v>80714.65996900061</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.65996900066</v>
       </c>
       <c r="G2" t="n">
         <v>80714.65996900058</v>
@@ -26332,28 +26332,28 @@
         <v>80714.6599690006</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="J2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="K2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="L2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="N2" t="n">
         <v>82104.1769864284</v>
       </c>
-      <c r="K2" t="n">
-        <v>82104.1769864284</v>
-      </c>
-      <c r="L2" t="n">
-        <v>82104.17698642836</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>82104.17698642839</v>
       </c>
-      <c r="N2" t="n">
-        <v>82104.17698642837</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642833</v>
-      </c>
       <c r="P2" t="n">
-        <v>82104.17698642843</v>
+        <v>82104.17698642841</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187032.8958036143</v>
+        <v>187032.8958036144</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37450.91375005669</v>
+        <v>37450.91375005666</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309558</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744295</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744311</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744308</v>
+        <v>8727.256391744342</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744344</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744293</v>
       </c>
       <c r="J4" t="n">
-        <v>16718.11565483774</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="K4" t="n">
-        <v>16718.11565483772</v>
+        <v>16718.11565483779</v>
       </c>
       <c r="L4" t="n">
-        <v>16718.1156548377</v>
+        <v>16718.11565483781</v>
       </c>
       <c r="M4" t="n">
-        <v>16718.11565483772</v>
+        <v>16718.11565483776</v>
       </c>
       <c r="N4" t="n">
         <v>16718.11565483775</v>
       </c>
       <c r="O4" t="n">
-        <v>16718.11565483778</v>
+        <v>16718.11565483776</v>
       </c>
       <c r="P4" t="n">
-        <v>16718.11565483774</v>
+        <v>16718.11565483775</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1180218.647442948</v>
+        <v>-1180648.206309537</v>
       </c>
       <c r="C6" t="n">
         <v>-146355.7324303995</v>
@@ -26528,40 +26528,40 @@
         <v>-306371.1951783985</v>
       </c>
       <c r="E6" t="n">
-        <v>-354547.588054006</v>
+        <v>-354582.3259794415</v>
       </c>
       <c r="F6" t="n">
-        <v>-29135.12624665078</v>
+        <v>-29169.86417208645</v>
       </c>
       <c r="G6" t="n">
-        <v>-29135.12624665083</v>
+        <v>-29169.86417208656</v>
       </c>
       <c r="H6" t="n">
-        <v>-29135.12624665081</v>
+        <v>-29169.86417208654</v>
       </c>
       <c r="I6" t="n">
-        <v>-29135.12624665079</v>
+        <v>-29169.8641720865</v>
       </c>
       <c r="J6" t="n">
-        <v>-224810.950325939</v>
+        <v>-224810.9503259392</v>
       </c>
       <c r="K6" t="n">
-        <v>-37778.05452232473</v>
+        <v>-37778.0545223248</v>
       </c>
       <c r="L6" t="n">
-        <v>-86072.02453051557</v>
+        <v>-86072.0245305156</v>
       </c>
       <c r="M6" t="n">
-        <v>-122833.0824578365</v>
+        <v>-122833.0824578366</v>
       </c>
       <c r="N6" t="n">
-        <v>-37778.05452232478</v>
+        <v>-37778.05452232475</v>
       </c>
       <c r="O6" t="n">
-        <v>-57205.77251595663</v>
+        <v>-57205.77251595657</v>
       </c>
       <c r="P6" t="n">
-        <v>-37778.05452232471</v>
+        <v>-37778.05452232474</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26814,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>300.0175193710343</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>39.32139020186506</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27540,19 +27540,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>87.36883705020534</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>28.74022679656736</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>58.73916724423644</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>108.2665972049244</v>
+        <v>96.4975558732603</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>244.5672423254769</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>175.2560578107839</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>51.24558311758207</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>92.52807668246776</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-2.053100445934254e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28570,13 +28570,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32081,10 +32081,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32251,7 +32251,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236501</v>
       </c>
       <c r="Q17" t="n">
         <v>593.8732233669223</v>
@@ -32315,13 +32315,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>391.605194951448</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>145.7021085929663</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>216.8572963387063</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>166.2270851128133</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>351.5042614518786</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>397.6543049213403</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>434.6640573992324</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>194.5189324111248</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>535.8585467435946</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>465.1758167018091</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>230.8362312321895</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,28 +35015,28 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>484.1293732522352</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>351.0673823404725</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,10 +35729,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35963,13 +35963,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>253.0508151715738</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>18.86448192629965</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>90.01966967203961</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>208.9080170074342</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>300.6896499849021</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>55.96455263125056</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,10 +37947,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>393.2623022991502</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
